--- a/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(Including Fixed Salary).xlsx
+++ b/media/COMBINED SALARY OF L_T AND IDFC TW/PER PAID CASE(Including Fixed Salary).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL39"/>
+  <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3085,7 +3085,9 @@
       <c r="AC20" t="n">
         <v>300</v>
       </c>
-      <c r="AD20" t="inlineStr"/>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr">
         <is>
@@ -3611,7 +3613,9 @@
       <c r="AC24" t="n">
         <v>200</v>
       </c>
-      <c r="AD24" t="inlineStr"/>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr">
         <is>
@@ -4136,7 +4140,7 @@
         <v>2500</v>
       </c>
       <c r="AD28" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr">
@@ -4566,1062 +4570,6 @@
         </is>
       </c>
       <c r="AL31" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>ANIKET</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>3</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1934964.23</v>
-      </c>
-      <c r="E32" t="n">
-        <v>63</v>
-      </c>
-      <c r="F32" t="n">
-        <v>28</v>
-      </c>
-      <c r="G32" t="n">
-        <v>35</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>910417.4300000001</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1024546.8</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>47.05</v>
-      </c>
-      <c r="U32" t="n">
-        <v>52.95</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>52.95</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>6300</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr">
-        <is>
-          <t>P269</t>
-        </is>
-      </c>
-      <c r="AG32" t="inlineStr">
-        <is>
-          <t>O50</t>
-        </is>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>MANOJ TOMAR</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>3</v>
-      </c>
-      <c r="D33" t="n">
-        <v>581714.55</v>
-      </c>
-      <c r="E33" t="n">
-        <v>39</v>
-      </c>
-      <c r="F33" t="n">
-        <v>22</v>
-      </c>
-      <c r="G33" t="n">
-        <v>17</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>195864.97</v>
-      </c>
-      <c r="N33" t="n">
-        <v>385849.58</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>33.67</v>
-      </c>
-      <c r="U33" t="n">
-        <v>66.33</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>66.33</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>3900</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr">
-        <is>
-          <t>P117</t>
-        </is>
-      </c>
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t>O50</t>
-        </is>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>NITIN KUMAR KHARE</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>3</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1395168.22</v>
-      </c>
-      <c r="E34" t="n">
-        <v>60</v>
-      </c>
-      <c r="F34" t="n">
-        <v>23</v>
-      </c>
-      <c r="G34" t="n">
-        <v>34</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>143569.99</v>
-      </c>
-      <c r="N34" t="n">
-        <v>1215632.99</v>
-      </c>
-      <c r="O34" t="n">
-        <v>26955.62</v>
-      </c>
-      <c r="P34" t="n">
-        <v>9009.620000000001</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="U34" t="n">
-        <v>87.13</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>89.70999999999999</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>6000</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>P241</t>
-        </is>
-      </c>
-      <c r="AG34" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>MUTHOOT</t>
-        </is>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t>TW</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>PRAMOD KUMAR DHOUNDIYAL</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>3</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1041085.97</v>
-      </c>
-      <c r="E35" t="n">
-        <v>40</v>
-      </c>
-      <c r="F35" t="n">
-        <v>25</v>
-      </c>
-      <c r="G35" t="n">
-        <v>14</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>648729.46</v>
-      </c>
-      <c r="N35" t="n">
-        <v>378767.26</v>
-      </c>
-      <c r="O35" t="n">
-        <v>13589.25</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>62.31</v>
-      </c>
-      <c r="U35" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>37.69</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t>P264</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>SHARWAN</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>3</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1022017.83</v>
-      </c>
-      <c r="E36" t="n">
-        <v>30</v>
-      </c>
-      <c r="F36" t="n">
-        <v>9</v>
-      </c>
-      <c r="G36" t="n">
-        <v>19</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="n">
-        <v>199933.01</v>
-      </c>
-      <c r="N36" t="n">
-        <v>809574.42</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1270.98</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>11239.42</v>
-      </c>
-      <c r="T36" t="n">
-        <v>19.56</v>
-      </c>
-      <c r="U36" t="n">
-        <v>79.20999999999999</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>80.43000000000001</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr">
-        <is>
-          <t>P119</t>
-        </is>
-      </c>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>SOURAV KUMAR</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>3</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1900964.06</v>
-      </c>
-      <c r="E37" t="n">
-        <v>55</v>
-      </c>
-      <c r="F37" t="n">
-        <v>23</v>
-      </c>
-      <c r="G37" t="n">
-        <v>31</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="n">
-        <v>747673.49</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1125022.38</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>28268.19</v>
-      </c>
-      <c r="T37" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="U37" t="n">
-        <v>59.18</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>60.67</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>5500</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr">
-        <is>
-          <t>P261</t>
-        </is>
-      </c>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>SUDHAKAR</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>3</v>
-      </c>
-      <c r="D38" t="n">
-        <v>837049.22</v>
-      </c>
-      <c r="E38" t="n">
-        <v>62</v>
-      </c>
-      <c r="F38" t="n">
-        <v>39</v>
-      </c>
-      <c r="G38" t="n">
-        <v>20</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>203980.77</v>
-      </c>
-      <c r="N38" t="n">
-        <v>617748.2</v>
-      </c>
-      <c r="O38" t="n">
-        <v>12693.94</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2626.31</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>24.37</v>
-      </c>
-      <c r="U38" t="n">
-        <v>73.8</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>75.63</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>6200</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr">
-        <is>
-          <t>P126</t>
-        </is>
-      </c>
-      <c r="AG38" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="AI38" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL38" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>L&amp;T</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>VIJAY KUMAR</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>3</v>
-      </c>
-      <c r="D39" t="n">
-        <v>272424.49</v>
-      </c>
-      <c r="E39" t="n">
-        <v>15</v>
-      </c>
-      <c r="F39" t="n">
-        <v>9</v>
-      </c>
-      <c r="G39" t="n">
-        <v>6</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>177635.46</v>
-      </c>
-      <c r="N39" t="n">
-        <v>94789.03</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="U39" t="n">
-        <v>34.79</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>34.79</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>1500</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr">
-        <is>
-          <t>P270</t>
-        </is>
-      </c>
-      <c r="AG39" t="inlineStr">
-        <is>
-          <t>O50</t>
-        </is>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>FIELD</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="AL39" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
